--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_16_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_16_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1954960.003747139</v>
+        <v>1956720.534049924</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>263.7138800015061</v>
@@ -667,13 +667,13 @@
         <v>263.7138800015061</v>
       </c>
       <c r="E2" t="n">
-        <v>59.8012719186828</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>72.63544656439282</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="3">
@@ -737,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>194.7799829046282</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>23.88596715063842</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -822,13 +822,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>68.20507093468841</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>114.6128256968458</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>212.5689651179051</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D5" t="n">
-        <v>118.1014820586771</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E5" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015061</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>10.16188515252987</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>56.6288342570102</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5491597882495</v>
+        <v>11.54915978824949</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465039</v>
+        <v>65.76608425465031</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348406</v>
       </c>
       <c r="T8" t="n">
-        <v>5.7217404314143</v>
+        <v>192.5736499533604</v>
       </c>
       <c r="U8" t="n">
         <v>251.0453666896857</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614507</v>
+        <v>92.83909691614505</v>
       </c>
       <c r="I9" t="n">
-        <v>18.47335059662137</v>
+        <v>20.24979976115236</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901738</v>
+        <v>132.6026661256442</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1293,19 +1293,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>50.34571932180148</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>119.6981910140087</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1536,7 +1536,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>101.393069766702</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>266.6707094398014</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890421</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1618,10 +1618,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187869</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,7 +1773,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>99.86023999965194</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>219.2450387532285</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206847</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2013,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>121.3986907513294</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>186.9166231085223</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>123.7971820797035</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2332,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187881</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2538,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>225.1222404669082</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2560,13 +2560,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>95.25381996636069</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>34.2234001515595</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>27.77749086859478</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3031,10 +3031,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>116.4636264596503</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>26.05480806223149</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892487</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179931</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,13 +3717,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673023</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>245.8796921214428</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V43" t="n">
-        <v>137.9792024346672</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>35.99871774582724</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4315,10 +4315,10 @@
         <v>101.4117490931551</v>
       </c>
       <c r="E2" t="n">
-        <v>41.00642392276842</v>
+        <v>101.4117490931551</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356495</v>
+        <v>94.46624834395162</v>
       </c>
       <c r="G2" t="n">
         <v>21.09711040012049</v>
@@ -4375,7 +4375,7 @@
         <v>900.5447187946889</v>
       </c>
       <c r="Y2" t="n">
-        <v>900.5447187946889</v>
+        <v>634.167062227511</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>650.2565623210693</v>
+        <v>354.787594686703</v>
       </c>
       <c r="C3" t="n">
-        <v>475.8035330399423</v>
+        <v>180.334565405576</v>
       </c>
       <c r="D3" t="n">
-        <v>326.869123378691</v>
+        <v>180.334565405576</v>
       </c>
       <c r="E3" t="n">
-        <v>167.6316683732355</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
         <v>21.09711040012049</v>
@@ -4418,43 +4418,43 @@
         <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>478.4519222278687</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>858.1080625266021</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V3" t="n">
-        <v>858.1080625266021</v>
+        <v>801.367527981072</v>
       </c>
       <c r="W3" t="n">
-        <v>858.1080625266021</v>
+        <v>547.1301712528705</v>
       </c>
       <c r="X3" t="n">
-        <v>650.2565623210693</v>
+        <v>523.0029317067711</v>
       </c>
       <c r="Y3" t="n">
-        <v>650.2565623210693</v>
+        <v>523.0029317067711</v>
       </c>
     </row>
     <row r="4">
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.0332933280274</v>
+        <v>572.1814809021204</v>
       </c>
       <c r="C4" t="n">
-        <v>21.09711040012049</v>
+        <v>403.2452979742135</v>
       </c>
       <c r="D4" t="n">
-        <v>21.09711040012049</v>
+        <v>253.1286585618778</v>
       </c>
       <c r="E4" t="n">
-        <v>21.09711040012049</v>
+        <v>105.2155649794846</v>
       </c>
       <c r="F4" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="G4" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J4" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4521,19 +4521,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>788.4778634388466</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>533.7933752329598</v>
+        <v>800.1710318001377</v>
       </c>
       <c r="W4" t="n">
-        <v>418.0228442260448</v>
+        <v>800.1710318001377</v>
       </c>
       <c r="X4" t="n">
-        <v>190.0332933280274</v>
+        <v>572.1814809021204</v>
       </c>
       <c r="Y4" t="n">
-        <v>190.0332933280274</v>
+        <v>572.1814809021204</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>686.1106626298169</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="C5" t="n">
-        <v>686.1106626298169</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="D5" t="n">
-        <v>566.8162363079209</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E5" t="n">
-        <v>300.4385797407429</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
         <v>34.06092317356495</v>
@@ -4594,25 +4594,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>686.1106626298169</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>686.1106626298169</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>686.1106626298169</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>686.1106626298169</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>686.1106626298169</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y5" t="n">
-        <v>686.1106626298169</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="6">
@@ -4646,7 +4646,7 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004801</v>
       </c>
       <c r="K6" t="n">
         <v>192.1295835699343</v>
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>645.2175042777675</v>
+        <v>503.2874698569806</v>
       </c>
       <c r="C7" t="n">
-        <v>476.2813213498606</v>
+        <v>334.3512869290737</v>
       </c>
       <c r="D7" t="n">
-        <v>326.1646819375248</v>
+        <v>184.2346475167379</v>
       </c>
       <c r="E7" t="n">
-        <v>178.2515883551317</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="F7" t="n">
-        <v>31.36164085722137</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="G7" t="n">
-        <v>31.36164085722137</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H7" t="n">
-        <v>31.36164085722137</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I7" t="n">
-        <v>31.36164085722137</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4761,16 +4761,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.855520006025</v>
+        <v>997.6546773221759</v>
       </c>
       <c r="W7" t="n">
-        <v>1054.855520006025</v>
+        <v>731.2770207549979</v>
       </c>
       <c r="X7" t="n">
-        <v>826.8659691080072</v>
+        <v>503.2874698569806</v>
       </c>
       <c r="Y7" t="n">
-        <v>826.8659691080072</v>
+        <v>503.2874698569806</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.37050346536</v>
+        <v>540.2933661004024</v>
       </c>
       <c r="C8" t="n">
-        <v>1248.407986524948</v>
+        <v>540.2933661004024</v>
       </c>
       <c r="D8" t="n">
-        <v>1248.407986524948</v>
+        <v>540.2933661004024</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.407986524948</v>
+        <v>540.2933661004024</v>
       </c>
       <c r="F8" t="n">
-        <v>837.4220817353408</v>
+        <v>129.3074613107949</v>
       </c>
       <c r="G8" t="n">
-        <v>421.715859727008</v>
+        <v>117.6416433428661</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6416433428662</v>
+        <v>117.6416433428661</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685565</v>
+        <v>51.21125520685568</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467168</v>
+        <v>187.3702251467171</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607419</v>
+        <v>442.1757437607423</v>
       </c>
       <c r="L8" t="n">
         <v>795.1862829045924</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995226</v>
+        <v>1219.647962995227</v>
       </c>
       <c r="N8" t="n">
         <v>1655.591685209584</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940595</v>
+        <v>2053.905718940596</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550197</v>
+        <v>2359.356530550198</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661163</v>
+        <v>2540.564622661164</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342782</v>
+        <v>2560.562760342784</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342782</v>
+        <v>2435.830015762137</v>
       </c>
       <c r="T8" t="n">
-        <v>2554.783224553475</v>
+        <v>2241.311177425409</v>
       </c>
       <c r="U8" t="n">
-        <v>2301.202046079045</v>
+        <v>1987.729998950979</v>
       </c>
       <c r="V8" t="n">
-        <v>1970.139158735474</v>
+        <v>1656.667111607408</v>
       </c>
       <c r="W8" t="n">
-        <v>1617.37050346536</v>
+        <v>1303.898456337294</v>
       </c>
       <c r="X8" t="n">
-        <v>1617.37050346536</v>
+        <v>930.4326980762141</v>
       </c>
       <c r="Y8" t="n">
-        <v>1617.37050346536</v>
+        <v>540.2933661004024</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010773</v>
+        <v>931.3041138965631</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199503</v>
+        <v>756.8510846154361</v>
       </c>
       <c r="D9" t="n">
-        <v>606.122281858699</v>
+        <v>607.9166749541848</v>
       </c>
       <c r="E9" t="n">
-        <v>446.8848268532435</v>
+        <v>448.6792199487294</v>
       </c>
       <c r="F9" t="n">
-        <v>300.3502688801285</v>
+        <v>302.1446619756144</v>
       </c>
       <c r="G9" t="n">
-        <v>163.6480708763167</v>
+        <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>69.87120530445299</v>
+        <v>71.66559839993887</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685565</v>
+        <v>51.21125520685568</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637187</v>
+        <v>113.4887579637188</v>
       </c>
       <c r="K9" t="n">
-        <v>559.9063389572707</v>
+        <v>506.4581980381348</v>
       </c>
       <c r="L9" t="n">
-        <v>854.4423223907519</v>
+        <v>800.9941814716162</v>
       </c>
       <c r="M9" t="n">
-        <v>1217.508790865053</v>
+        <v>1164.060649945918</v>
       </c>
       <c r="N9" t="n">
-        <v>1604.593193337622</v>
+        <v>1551.145052418487</v>
       </c>
       <c r="O9" t="n">
-        <v>1936.480003325011</v>
+        <v>1883.031862405876</v>
       </c>
       <c r="P9" t="n">
-        <v>2421.05522988888</v>
+        <v>2445.345361789039</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442625</v>
+        <v>2560.562760342784</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342782</v>
+        <v>2560.562760342784</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251698</v>
+        <v>2426.620673347184</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685347</v>
+        <v>2232.610870780833</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751576</v>
+        <v>2004.520714847062</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519834</v>
+        <v>1769.368606615319</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791632</v>
+        <v>1515.131249887118</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586099</v>
+        <v>1307.279749681585</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821145</v>
+        <v>1099.519450916631</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.21125520685565</v>
+        <v>715.9213805686154</v>
       </c>
       <c r="C10" t="n">
-        <v>51.21125520685565</v>
+        <v>546.9851976407085</v>
       </c>
       <c r="D10" t="n">
-        <v>51.21125520685565</v>
+        <v>396.8685582283728</v>
       </c>
       <c r="E10" t="n">
-        <v>51.21125520685565</v>
+        <v>248.9554646459796</v>
       </c>
       <c r="F10" t="n">
-        <v>51.21125520685565</v>
+        <v>102.0655171480693</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685565</v>
+        <v>51.21125520685568</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685565</v>
+        <v>51.21125520685568</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685565</v>
+        <v>51.21125520685568</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380143</v>
+        <v>76.63468308380152</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676567</v>
+        <v>248.2500215676569</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368918</v>
+        <v>523.3850043368921</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904033</v>
+        <v>823.8653899904036</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101612</v>
+        <v>1122.635640101613</v>
       </c>
       <c r="O10" t="n">
         <v>1382.582027931091</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616499</v>
+        <v>1581.4903876165</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477362</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477362</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477362</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="T10" t="n">
-        <v>1514.861881826849</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="U10" t="n">
-        <v>1225.74350832149</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="V10" t="n">
-        <v>971.0590201156035</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="W10" t="n">
-        <v>681.6418500786428</v>
+        <v>1346.351975440403</v>
       </c>
       <c r="X10" t="n">
-        <v>453.6522991806254</v>
+        <v>1118.362424542385</v>
       </c>
       <c r="Y10" t="n">
-        <v>232.8597200370953</v>
+        <v>897.5698453988551</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,52 +5029,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362689</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245705</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1053.171308869721</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>884.2351259418142</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>734.1184865294784</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741513</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W13" t="n">
-        <v>1683.601903741513</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="X13" t="n">
-        <v>1455.612352843491</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>1234.819773699961</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,52 +5266,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>1051.622995973711</v>
       </c>
       <c r="C16" t="n">
-        <v>847.644273983533</v>
+        <v>882.686813045804</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>732.5701736334682</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.963083580261</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>2157.887856924459</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V16" t="n">
-        <v>1936.428221820188</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W16" t="n">
-        <v>1647.011051783227</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="17">
@@ -5494,31 +5494,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,28 +5527,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327652</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>763.7541388327652</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D19" t="n">
-        <v>613.6374994204294</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>465.7244058380363</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741513</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806535</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630049</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075801</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5968,37 +5968,37 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
@@ -6007,31 +6007,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6080,10 +6080,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="26">
@@ -6205,13 +6205,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6220,55 +6220,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>1053.171308869725</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429802</v>
+        <v>884.2351259418183</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>734.1184865294825</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>586.2053929470894</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>439.315445449179</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>272.119346164059</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1455.612352843495</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>1234.819773699965</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,61 +6451,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,55 +6597,55 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>727.9786782557277</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>559.0424953278208</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D31" t="n">
-        <v>408.925855915485</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
         <v>2264.108249235165</v>
@@ -6663,10 +6663,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614391</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.547769317909</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6694,58 +6694,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>577.8620388433919</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>408.925855915485</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>408.925855915485</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2420.645095638612</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2237.790261293517</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2018.188796316458</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1729.113569660651</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1474.429081454764</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="35">
@@ -6928,31 +6928,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6964,22 +6964,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7168,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332388</v>
@@ -7189,16 +7189,16 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7393,10 +7393,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7405,40 +7405,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,16 +7484,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,64 +7545,64 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910813</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570822</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279807</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924463</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
         <v>2018.514925172274</v>
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,16 +7721,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2160.700204330166</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
   </sheetData>
@@ -8066,10 +8066,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>45.78351343583191</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>51.53815565544045</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>106.7437663446524</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8157,7 +8157,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775129</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>99.37288961069065</v>
       </c>
       <c r="K6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>210.4772158821381</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>239.9392607416612</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.98618304348506</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>45.04089287986713</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>19.85228889678962</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>46.57372264691723</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016492</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>32.8926045705995</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>24.02235727160182</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>30.48882721876595</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>57.22910392194107</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>0.5874149221289997</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>45.04089287986319</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>145.6085800303778</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>118.6564717779744</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>63.36835372228703</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>40.3204386478902</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194173</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194188</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>6.257951202385186</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -25842,10 +25842,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V43" t="n">
-        <v>114.1584408891608</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>181.406732581461</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>857263.0331147035</v>
+        <v>857263.0331147037</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>857263.0331147037</v>
+        <v>857263.0331147036</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>857263.0331147036</v>
+        <v>857263.0331147035</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>857263.0331147036</v>
+        <v>857263.0331147037</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>857263.0331147035</v>
+        <v>857263.0331147034</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>857263.0331147035</v>
+        <v>857263.0331147037</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>857263.0331147038</v>
+        <v>857263.0331147037</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>857263.0331147035</v>
+        <v>857263.0331147036</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>574729.2389049986</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="E2" t="n">
+        <v>565002.6197830042</v>
+      </c>
+      <c r="F2" t="n">
         <v>565002.6197830043</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="H2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="I2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="H2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="I2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="N2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="O2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="M2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="N2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="O2" t="n">
-        <v>565002.619783005</v>
-      </c>
       <c r="P2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830043</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580788</v>
+        <v>390680.0076580793</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606937</v>
+        <v>507909.2320606929</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911404</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.2377910176</v>
+        <v>95270.23779101764</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954691</v>
+        <v>132717.975695469</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>250332.6659748621</v>
+        <v>250332.6659748622</v>
       </c>
       <c r="C4" t="n">
         <v>250332.6659748621</v>
       </c>
       <c r="D4" t="n">
-        <v>139261.6527555025</v>
+        <v>139261.6527555024</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678112</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678112</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678112</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
+        <v>10557.08828678121</v>
+      </c>
+      <c r="I4" t="n">
         <v>10557.0882867812</v>
       </c>
-      <c r="I4" t="n">
-        <v>10557.08828678114</v>
-      </c>
       <c r="J4" t="n">
-        <v>10557.08828678117</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
         <v>10557.08828678121</v>
@@ -26453,7 +26453,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="N4" t="n">
-        <v>10557.08828678116</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="O4" t="n">
         <v>10557.08828678121</v>
@@ -26475,7 +26475,7 @@
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567895</v>
+        <v>92902.86757567899</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-418739.2108653228</v>
       </c>
       <c r="C6" t="n">
-        <v>261348.7697258704</v>
+        <v>261348.7697258702</v>
       </c>
       <c r="D6" t="n">
-        <v>-48115.28908426172</v>
+        <v>-48115.2890842624</v>
       </c>
       <c r="E6" t="n">
-        <v>-54933.60964273458</v>
+        <v>-54620.96831381269</v>
       </c>
       <c r="F6" t="n">
-        <v>452975.6224179592</v>
+        <v>453288.2637468803</v>
       </c>
       <c r="G6" t="n">
-        <v>452975.6224179592</v>
+        <v>453288.2637468802</v>
       </c>
       <c r="H6" t="n">
-        <v>452975.6224179592</v>
+        <v>453288.2637468805</v>
       </c>
       <c r="I6" t="n">
-        <v>452975.6224179596</v>
+        <v>453288.2637468803</v>
       </c>
       <c r="J6" t="n">
-        <v>383976.4679988452</v>
+        <v>384289.1093277663</v>
       </c>
       <c r="K6" t="n">
-        <v>452975.6224179591</v>
+        <v>453288.2637468805</v>
       </c>
       <c r="L6" t="n">
-        <v>357705.3846269416</v>
+        <v>358018.0259558628</v>
       </c>
       <c r="M6" t="n">
-        <v>320257.6467224901</v>
+        <v>320570.2880514113</v>
       </c>
       <c r="N6" t="n">
-        <v>452975.6224179592</v>
+        <v>453288.2637468803</v>
       </c>
       <c r="O6" t="n">
-        <v>452975.6224179597</v>
+        <v>453288.2637468805</v>
       </c>
       <c r="P6" t="n">
-        <v>452975.6224179592</v>
+        <v>453288.2637468802</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627827</v>
+        <v>933.7024595627831</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,43 +26795,43 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856956</v>
+        <v>640.140690085696</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933044</v>
+        <v>319.6474457933049</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788913</v>
+        <v>434.2730407788906</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841895</v>
+        <v>376.4268100841899</v>
       </c>
       <c r="E4" t="n">
-        <v>532.567598013953</v>
+        <v>532.5675980139522</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841895</v>
+        <v>376.4268100841896</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139528</v>
+        <v>532.5675980139524</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841895</v>
+        <v>376.4268100841899</v>
       </c>
       <c r="M4" t="n">
-        <v>532.567598013953</v>
+        <v>532.5675980139522</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>101.5590117695014</v>
@@ -27387,13 +27387,13 @@
         <v>90.96916161917682</v>
       </c>
       <c r="E2" t="n">
-        <v>322.129098153579</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>340.1987280813172</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="3">
@@ -27457,19 +27457,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
@@ -27514,16 +27514,16 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>31.07450459892641</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>181.887018052839</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27542,13 +27542,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>77.21597708824284</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
@@ -27560,7 +27560,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27593,13 +27593,13 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117134</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>171.9101726397452</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>170.1648765455755</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
-        <v>236.5815595620059</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E5" t="n">
         <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402053</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27797,7 +27797,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>4.910313946352222</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27833,10 +27833,10 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>195.5088090668178</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348407</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>200.9428226332755</v>
+        <v>14.09091311132946</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27952,7 +27952,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.776449164531023</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.776449164529595</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28013,19 +28013,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>115.9615342899047</v>
       </c>
       <c r="H10" t="n">
         <v>147.2573199590395</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640954</v>
+        <v>101.5869591640953</v>
       </c>
       <c r="S10" t="n">
         <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>101.05329749633</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28392,10 +28392,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-6.898526353223995e-15</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-5.267200760523745e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28535,7 +28535,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>-4.5798310612754e-12</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -28569,7 +28569,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.696885631945615e-12</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.267200760523745e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-5.267200760523745e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28632,7 +28632,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-5.267200760523745e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -29751,7 +29751,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29963,7 +29963,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -30513,7 +30513,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>-5.621818412198717e-13</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -30650,7 +30650,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885556</v>
+        <v>3.753577726885557</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546671</v>
+        <v>38.44132789546673</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157555</v>
+        <v>144.7098053157556</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972532</v>
+        <v>318.5802175972534</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763189</v>
+        <v>477.4691627763191</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354929</v>
+        <v>592.3427171354931</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359938</v>
+        <v>659.0954050359941</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525074</v>
+        <v>669.7602577525078</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307891</v>
+        <v>632.4356192307895</v>
       </c>
       <c r="P8" t="n">
-        <v>539.769169098302</v>
+        <v>539.7691690983022</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542128</v>
+        <v>405.344166754213</v>
       </c>
       <c r="R8" t="n">
-        <v>235.785676886475</v>
+        <v>235.7856768864751</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140468</v>
+        <v>85.53465245140472</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944153</v>
+        <v>16.43128649944154</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508444</v>
+        <v>0.3002862181508446</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436929</v>
+        <v>2.00834113943693</v>
       </c>
       <c r="H9" t="n">
         <v>19.3963473203514</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026269</v>
+        <v>69.14683309026272</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079425</v>
+        <v>189.7441951079426</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502167</v>
+        <v>324.3030514502169</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571279</v>
+        <v>436.0654741571282</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617165</v>
+        <v>508.8678404617168</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152213</v>
+        <v>522.3360580152215</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519082</v>
+        <v>477.8354464519085</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947588</v>
+        <v>383.505072494759</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463701</v>
+        <v>256.3629847463702</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204788</v>
+        <v>124.6933209204789</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366398</v>
+        <v>37.304055813664</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133935</v>
+        <v>8.095024154133938</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321277065419033</v>
@@ -31676,46 +31676,46 @@
         <v>1.683725746752559</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840003</v>
+        <v>14.96985254840004</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415878</v>
+        <v>50.63422518415881</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954059</v>
+        <v>119.039410295406</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772518</v>
+        <v>195.6183185772519</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490123</v>
+        <v>250.3240987490124</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023124</v>
+        <v>263.9316641023125</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462349</v>
+        <v>257.6559590462351</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046254</v>
+        <v>237.9869810046255</v>
       </c>
       <c r="P10" t="n">
-        <v>203.638975770873</v>
+        <v>203.6389757708731</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939802</v>
+        <v>140.9890713939803</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307412</v>
+        <v>75.70643221307417</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658776</v>
+        <v>29.34274778658778</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942749</v>
+        <v>7.194100917942753</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650331</v>
+        <v>0.09183958618650336</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>173.8200325543355</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>543.0832917018711</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>173.8200325543355</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,22 +32317,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>246.9596973201444</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,22 +32791,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>463.9598929192557</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34786,10 +34786,10 @@
         <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>238.3094620181792</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>263.7138800015061</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
         <v>171.6550983098281</v>
@@ -34798,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966405</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
@@ -34877,7 +34877,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496654</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="K6" t="n">
-        <v>172.7600739089029</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
         <v>148.2266905659562</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.534313070567</v>
+        <v>137.5343130705671</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313384</v>
+        <v>257.3793117313386</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655056</v>
+        <v>356.5763021655059</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087211</v>
+        <v>428.7491718087214</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559165</v>
+        <v>440.3471941559168</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091024</v>
+        <v>402.3374078091027</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430324</v>
+        <v>308.5361733430327</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797634</v>
+        <v>183.0384768797635</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234286</v>
+        <v>20.20013907234298</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127582</v>
+        <v>62.90656844127591</v>
       </c>
       <c r="K9" t="n">
-        <v>450.9268494884363</v>
+        <v>396.9388283579959</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772538</v>
+        <v>297.511094377254</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396982</v>
+        <v>366.7338065396984</v>
       </c>
       <c r="N9" t="n">
-        <v>390.994345931888</v>
+        <v>390.9943459318882</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074638</v>
+        <v>335.239202007464</v>
       </c>
       <c r="P9" t="n">
-        <v>489.4699258220898</v>
+        <v>567.9934337203659</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603486</v>
+        <v>116.3812106603487</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783571</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873313</v>
+        <v>25.68023017873318</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513689</v>
+        <v>173.348826751369</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093284</v>
+        <v>277.9141240093285</v>
       </c>
       <c r="M10" t="n">
-        <v>303.515541064153</v>
+        <v>303.5155410641531</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254635</v>
+        <v>301.7881314254637</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186651</v>
+        <v>262.5721089186652</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357665</v>
+        <v>200.9175350357666</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228578</v>
+        <v>54.82702814228587</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>35.9785935799765</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>35.9785935799765</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>108.4053175402702</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,19 +36442,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>332.6181808359224</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010493</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
